--- a/Data/aearep-290/candidatepackages.xlsx
+++ b/Data/aearep-290/candidatepackages.xlsx
@@ -31,10 +31,10 @@
     <t>mmerge</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
   </si>
   <si>
     <t>ice</t>
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -163,7 +163,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -175,7 +175,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -187,7 +187,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -199,7 +199,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -211,7 +211,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -223,10 +223,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="C8">
-        <v>0.17738726735115051</v>
+        <v>0.19471074640750885</v>
       </c>
       <c r="D8"/>
     </row>
@@ -235,10 +235,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="C9">
-        <v>0.22513262927532196</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D9"/>
     </row>
@@ -247,10 +247,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>853</v>
+        <v>905</v>
       </c>
       <c r="C10">
-        <v>0.28282493352890015</v>
+        <v>0.29917356371879578</v>
       </c>
       <c r="D10"/>
     </row>
@@ -259,10 +259,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C11">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D11"/>
     </row>
